--- a/www/ig/fhir/annuaire/StructureDefinition-as-ext-person-nationality.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-ext-person-nationality.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot-3</t>
+    <t>1.0.0-ballot-4</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-19T15:19:17+00:00</t>
+    <t>2024-04-02T14:41:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>ANS</t>
+    <t>Agence du Numérique en Santé (ANS) - 2-10 Rue d'Oradour-sur-Glane, 75015 Paris</t>
   </si>
   <si>
     <t>Contact</t>

--- a/www/ig/fhir/annuaire/StructureDefinition-as-ext-person-nationality.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-ext-person-nationality.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot-4</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-02T14:41:29+00:00</t>
+    <t>2024-04-10T12:30:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Agence du Numérique en Santé (ANS) - 2-10 Rue d'Oradour-sur-Glane, 75015 Paris (https://esante.gouv.fr, monserviceclient.annuaire@esante.gouv.fr)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/www/ig/fhir/annuaire/StructureDefinition-as-ext-person-nationality.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-ext-person-nationality.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-10T12:30:53+00:00</t>
+    <t>2024-04-25T11:46:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/ig/fhir/annuaire/StructureDefinition-as-ext-person-nationality.xlsx
+++ b/www/ig/fhir/annuaire/StructureDefinition-as-ext-person-nationality.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.1</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-25T11:46:45+00:00</t>
+    <t>2025-04-14T13:07:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -319,9 +319,6 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Extension.extension:code</t>
   </si>
   <si>
@@ -366,6 +363,9 @@
   </si>
   <si>
     <t>Extension.url</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
   <si>
     <t>Extension.extension:code.value[x]</t>
@@ -1199,24 +1199,24 @@
         <v>78</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s" s="2">
         <v>89</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>76</v>
@@ -1241,10 +1241,10 @@
         <v>91</v>
       </c>
       <c r="L5" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>102</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1304,7 +1304,7 @@
         <v>78</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>81</v>
@@ -1315,10 +1315,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1418,10 +1418,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="B7" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1450,7 +1450,7 @@
         <v>30</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1510,7 +1510,7 @@
         <v>78</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ7" t="s" s="2">
         <v>81</v>
@@ -1521,10 +1521,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="B8" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="B8" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1547,16 +1547,16 @@
         <v>76</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="M8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>76</v>
@@ -1606,7 +1606,7 @@
         <v>76</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>83</v>
@@ -1621,7 +1621,7 @@
         <v>76</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9">
@@ -1716,13 +1716,13 @@
         <v>83</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>123</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10">
@@ -1761,7 +1761,7 @@
         <v>126</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1821,7 +1821,7 @@
         <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>81</v>
@@ -1835,7 +1835,7 @@
         <v>127</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1938,7 +1938,7 @@
         <v>128</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -1967,7 +1967,7 @@
         <v>30</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2027,7 +2027,7 @@
         <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>81</v>
@@ -2041,7 +2041,7 @@
         <v>129</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2064,16 +2064,16 @@
         <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2123,7 +2123,7 @@
         <v>76</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>83</v>
@@ -2138,7 +2138,7 @@
         <v>76</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14">
@@ -2235,21 +2235,21 @@
         <v>83</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>123</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2272,16 +2272,16 @@
         <v>76</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>113</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -2331,7 +2331,7 @@
         <v>76</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>83</v>
@@ -2346,7 +2346,7 @@
         <v>76</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16">
@@ -2443,13 +2443,13 @@
         <v>83</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>123</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
